--- a/data/Subset1_WithDialogActs/HILLARY LEWIS-WOLFSEN pt 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/HILLARY LEWIS-WOLFSEN pt 4.xlsx_with_dialog_acts.xlsx
@@ -585,12 +585,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -889,12 +889,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -927,12 +927,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1345,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2029,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2987,12 +2987,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
